--- a/public/Excel_Format/loan.xlsx
+++ b/public/Excel_Format/loan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB61DE-CC6A-4451-8459-9E3BE01F4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1889A-F227-427F-ABD5-350D4B8FF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C95F1EB6-AD03-4015-AE06-325ABE50FD22}"/>
   </bookViews>
@@ -132,12 +132,6 @@
     <t>IN1005</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>child</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -726,10 +726,10 @@
         <v>27</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N2" s="13">
         <v>10000</v>
@@ -788,7 +788,7 @@
         <v>45901</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="13">
         <v>10000</v>
@@ -847,7 +847,7 @@
         <v>45995</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T3" s="5">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>45627</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T4" s="5">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>45658</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T5" s="5">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>45689</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T6" s="5">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>45717</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T7" s="5">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>45748</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="T8" s="5">
         <v>1</v>

--- a/public/Excel_Format/loan.xlsx
+++ b/public/Excel_Format/loan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1889A-F227-427F-ABD5-350D4B8FF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10827B-9B2F-4248-AED2-4DCAE28F59EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C95F1EB6-AD03-4015-AE06-325ABE50FD22}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{C95F1EB6-AD03-4015-AE06-325ABE50FD22}"/>
   </bookViews>
   <sheets>
     <sheet name="AHSS-Sal-Mar24" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Emp ID</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>IN1005</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>type id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>child</t>
   </si>
   <si>
     <t>variable</t>
@@ -626,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5805C0-2B28-49E5-8CB6-145A467F6037}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -649,28 +637,28 @@
     <col min="16" max="16" width="20.7109375" style="5" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="5" customWidth="1"/>
     <col min="18" max="18" width="29.140625" style="5" customWidth="1"/>
-    <col min="19" max="217" width="9.140625" style="5" customWidth="1"/>
-    <col min="218" max="218" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.85546875" style="5" customWidth="1"/>
-    <col min="220" max="220" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.7109375" style="5" customWidth="1"/>
-    <col min="222" max="222" width="3.5703125" style="5" customWidth="1"/>
-    <col min="223" max="223" width="24.42578125" style="5" customWidth="1"/>
-    <col min="224" max="224" width="15.140625" style="5" customWidth="1"/>
-    <col min="225" max="225" width="66.28515625" style="5" customWidth="1"/>
-    <col min="226" max="226" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="9.28515625" style="5" customWidth="1"/>
-    <col min="228" max="228" width="8" style="5" customWidth="1"/>
-    <col min="229" max="229" width="7" style="5" customWidth="1"/>
-    <col min="230" max="232" width="8" style="5" customWidth="1"/>
-    <col min="233" max="234" width="7" style="5" customWidth="1"/>
-    <col min="235" max="235" width="7.28515625" style="5" customWidth="1"/>
-    <col min="236" max="237" width="9" style="5" customWidth="1"/>
-    <col min="238" max="238" width="6.28515625" style="5" customWidth="1"/>
-    <col min="239" max="16384" width="8" style="5"/>
+    <col min="19" max="215" width="9.140625" style="5" customWidth="1"/>
+    <col min="216" max="216" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="10.85546875" style="5" customWidth="1"/>
+    <col min="218" max="218" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="9.7109375" style="5" customWidth="1"/>
+    <col min="220" max="220" width="3.5703125" style="5" customWidth="1"/>
+    <col min="221" max="221" width="24.42578125" style="5" customWidth="1"/>
+    <col min="222" max="222" width="15.140625" style="5" customWidth="1"/>
+    <col min="223" max="223" width="66.28515625" style="5" customWidth="1"/>
+    <col min="224" max="224" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.28515625" style="5" customWidth="1"/>
+    <col min="226" max="226" width="8" style="5" customWidth="1"/>
+    <col min="227" max="227" width="7" style="5" customWidth="1"/>
+    <col min="228" max="230" width="8" style="5" customWidth="1"/>
+    <col min="231" max="232" width="7" style="5" customWidth="1"/>
+    <col min="233" max="233" width="7.28515625" style="5" customWidth="1"/>
+    <col min="234" max="235" width="9" style="5" customWidth="1"/>
+    <col min="236" max="236" width="6.28515625" style="5" customWidth="1"/>
+    <col min="237" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,14 +713,8 @@
       <c r="R1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -770,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N2" s="13">
         <v>10000</v>
@@ -787,11 +769,8 @@
       <c r="R2" s="11">
         <v>45901</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -829,98 +808,22 @@
         <v>31</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N3" s="13">
         <v>10000</v>
       </c>
       <c r="O3" s="15">
-        <v>1</v>
+        <v>909</v>
       </c>
       <c r="P3" s="5">
         <v>5</v>
       </c>
       <c r="Q3" s="11">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="R3" s="11">
         <v>45995</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O4" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>45627</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O5" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>45658</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O6" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>45689</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O7" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>45717</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O8" s="15">
-        <v>2000</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>45748</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel_Format/loan.xlsx
+++ b/public/Excel_Format/loan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\capecom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wampp1\www\Projects\pixel\payroll\public\Excel_Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10827B-9B2F-4248-AED2-4DCAE28F59EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49A837-EC48-4ABF-84AB-4005CF69BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{C95F1EB6-AD03-4015-AE06-325ABE50FD22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C95F1EB6-AD03-4015-AE06-325ABE50FD22}"/>
   </bookViews>
   <sheets>
     <sheet name="AHSS-Sal-Mar24" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Emp ID</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>fixed</t>
+  </si>
+  <si>
+    <t>Emi Loan Date</t>
+  </si>
+  <si>
+    <t>Emi Pay Amount</t>
   </si>
 </sst>
 </file>
@@ -614,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5805C0-2B28-49E5-8CB6-145A467F6037}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -637,7 +643,9 @@
     <col min="16" max="16" width="20.7109375" style="5" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="5" customWidth="1"/>
     <col min="18" max="18" width="29.140625" style="5" customWidth="1"/>
-    <col min="19" max="215" width="9.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" style="5" customWidth="1"/>
+    <col min="21" max="215" width="9.140625" style="5" customWidth="1"/>
     <col min="216" max="216" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="217" max="217" width="10.85546875" style="5" customWidth="1"/>
     <col min="218" max="218" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -658,7 +666,7 @@
     <col min="237" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,8 +721,14 @@
       <c r="R1" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="S1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -770,7 +784,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -824,6 +838,12 @@
       </c>
       <c r="R3" s="11">
         <v>45995</v>
+      </c>
+      <c r="S3" s="11">
+        <v>45444</v>
+      </c>
+      <c r="T3" s="5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
